--- a/guru99/src/test/java/resources/testdata.xlsx
+++ b/guru99/src/test/java/resources/testdata.xlsx
@@ -1,38 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumLearning\gitRepo\home-practice\guru99\src\test\java\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8187D06D-0C32-4C95-AECC-8ADB58FC5C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2BE2BDAF-57FD-44F3-A396-8F2AE7792F19}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{FBD111BF-3D4A-4957-94FC-01B4EA525163}"/>
+    <workbookView activeTab="1" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+  <si>
+    <t>usrname</t>
   </si>
   <si>
     <t>password</t>
@@ -44,20 +35,110 @@
     <t>myjyvYj</t>
   </si>
   <si>
-    <t>mngr18254</t>
-  </si>
-  <si>
-    <t>myjyvY</t>
+    <t>custname</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>test street test colony</t>
+  </si>
+  <si>
+    <t>TestCity</t>
+  </si>
+  <si>
+    <t>TestState</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>cust ID</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>AccType</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>InitialDepositAmt</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>67464</t>
+  </si>
+  <si>
+    <t>24023</t>
+  </si>
+  <si>
+    <t>testacca3@gmail.com</t>
+  </si>
+  <si>
+    <t>testacca4@gmail.com</t>
+  </si>
+  <si>
+    <t>4408</t>
+  </si>
+  <si>
+    <t>53448</t>
+  </si>
+  <si>
+    <t>57948</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,17 +161,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,10 +192,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -119,7 +204,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -131,7 +216,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -145,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,26 +263,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -230,23 +298,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -308,21 +359,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -339,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -391,23 +442,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC59FF-D044-43A0-9ED4-3030D38A40C4}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -425,32 +474,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>11121989</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2">
+        <v>9999999999</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>123456</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11121989</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>123456</v>
+      </c>
+      <c r="H3">
+        <v>9999999999</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>123456</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
+    <hyperlink r:id="rId2" ref="I3" xr:uid="{631E4259-060D-48F1-A647-66F9E1FAD629}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/guru99/src/test/java/resources/testdata.xlsx
+++ b/guru99/src/test/java/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{2BE2BDAF-57FD-44F3-A396-8F2AE7792F19}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{15E7D40B-6936-4D02-8E42-3D85A8D5DFBB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>usrname</t>
   </si>
@@ -77,9 +77,6 @@
     <t>TestState</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>cust ID</t>
   </si>
   <si>
@@ -92,34 +89,25 @@
     <t>Savings</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>InitialDepositAmt</t>
   </si>
   <si>
     <t>Account No</t>
   </si>
   <si>
-    <t>67464</t>
-  </si>
-  <si>
-    <t>24023</t>
-  </si>
-  <si>
-    <t>testacca3@gmail.com</t>
-  </si>
-  <si>
-    <t>testacca4@gmail.com</t>
-  </si>
-  <si>
-    <t>4408</t>
-  </si>
-  <si>
-    <t>53448</t>
-  </si>
-  <si>
-    <t>57948</t>
+    <t>43874</t>
+  </si>
+  <si>
+    <t>57996</t>
+  </si>
+  <si>
+    <t>testacca7@gmail.com</t>
+  </si>
+  <si>
+    <t>24368</t>
+  </si>
+  <si>
+    <t>57999</t>
   </si>
 </sst>
 </file>
@@ -482,16 +470,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -526,21 +514,21 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -564,74 +552,25 @@
         <v>9999999999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2">
         <v>123456</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2">
         <v>2000</v>
       </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11121989</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>123456</v>
-      </c>
-      <c r="H3">
-        <v>9999999999</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>123456</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3">
-        <v>500</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I2" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
-    <hyperlink r:id="rId2" ref="I3" xr:uid="{631E4259-060D-48F1-A647-66F9E1FAD629}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/guru99/src/test/java/resources/testdata.xlsx
+++ b/guru99/src/test/java/resources/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{15E7D40B-6936-4D02-8E42-3D85A8D5DFBB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr documentId="13_ncr:1_{38CD191D-841B-4C4F-A301-981FBC2B258C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>usrname</t>
   </si>
@@ -95,19 +95,37 @@
     <t>Account No</t>
   </si>
   <si>
-    <t>43874</t>
-  </si>
-  <si>
-    <t>57996</t>
-  </si>
-  <si>
-    <t>testacca7@gmail.com</t>
-  </si>
-  <si>
-    <t>24368</t>
-  </si>
-  <si>
-    <t>57999</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>96523</t>
+  </si>
+  <si>
+    <t>17450</t>
+  </si>
+  <si>
+    <t>58256</t>
+  </si>
+  <si>
+    <t>58257</t>
+  </si>
+  <si>
+    <t>testacc3185@gmail.com</t>
+  </si>
+  <si>
+    <t>testacc3186@gmail.com</t>
+  </si>
+  <si>
+    <t>57870</t>
+  </si>
+  <si>
+    <t>84327</t>
+  </si>
+  <si>
+    <t>58258</t>
+  </si>
+  <si>
+    <t>58259</t>
   </si>
 </sst>
 </file>
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,28 +567,77 @@
         <v>123456</v>
       </c>
       <c r="H2">
-        <v>9999999999</v>
+        <v>1234567890</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>123456</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
       <c r="L2" t="s">
         <v>21</v>
       </c>
       <c r="M2">
         <v>2000</v>
       </c>
-      <c r="N2"/>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11121989</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>123456</v>
+      </c>
+      <c r="H3">
+        <v>1234567890</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3">
+        <v>123456</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="I2" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
+    <hyperlink r:id="rId2" ref="I3" xr:uid="{067757BC-B5FF-4EF2-AE54-E8F0A3714EAF}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/guru99/src/test/java/resources/testdata.xlsx
+++ b/guru99/src/test/java/resources/testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{38CD191D-841B-4C4F-A301-981FBC2B258C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD38EB-B694-4759-B59E-2402FCF47A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>usrname</t>
   </si>
@@ -98,24 +98,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>96523</t>
-  </si>
-  <si>
-    <t>17450</t>
-  </si>
-  <si>
-    <t>58256</t>
-  </si>
-  <si>
-    <t>58257</t>
-  </si>
-  <si>
-    <t>testacc3185@gmail.com</t>
-  </si>
-  <si>
-    <t>testacc3186@gmail.com</t>
-  </si>
-  <si>
     <t>57870</t>
   </si>
   <si>
@@ -126,13 +108,18 @@
   </si>
   <si>
     <t>58259</t>
+  </si>
+  <si>
+    <t>testacc3187@gmail.com</t>
+  </si>
+  <si>
+    <t>testacc3188@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,20 +155,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,10 +185,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -236,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -271,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -365,21 +352,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -396,7 +383,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -448,23 +435,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -481,26 +468,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -544,7 +531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -576,7 +563,7 @@
         <v>123456</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
@@ -585,10 +572,10 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -620,7 +607,7 @@
         <v>123456</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
@@ -629,15 +616,15 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
-    <hyperlink r:id="rId2" ref="I3" xr:uid="{067757BC-B5FF-4EF2-AE54-E8F0A3714EAF}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{067757BC-B5FF-4EF2-AE54-E8F0A3714EAF}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/guru99/src/test/java/resources/testdata.xlsx
+++ b/guru99/src/test/java/resources/testdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BD38EB-B694-4759-B59E-2402FCF47A0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{31BD38EB-B694-4759-B59E-2402FCF47A0F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12650" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>usrname</t>
   </si>
@@ -114,12 +114,25 @@
   </si>
   <si>
     <t>testacc3188@gmail.com</t>
+  </si>
+  <si>
+    <t>26044</t>
+  </si>
+  <si>
+    <t>63061</t>
+  </si>
+  <si>
+    <t>58402</t>
+  </si>
+  <si>
+    <t>58403</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,20 +168,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -185,10 +198,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -223,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -352,21 +365,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -383,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -435,15 +448,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -468,14 +481,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2206A0-B3E2-48B7-AC80-7003192D6146}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
@@ -483,8 +496,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -563,7 +576,7 @@
         <v>123456</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
@@ -572,7 +585,7 @@
         <v>2000</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -607,7 +620,7 @@
         <v>123456</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
@@ -616,15 +629,15 @@
         <v>2000</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{067757BC-B5FF-4EF2-AE54-E8F0A3714EAF}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{6331ECF0-E070-4070-864C-B4B976FB9D81}"/>
+    <hyperlink r:id="rId2" ref="I3" xr:uid="{067757BC-B5FF-4EF2-AE54-E8F0A3714EAF}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>